--- a/ComplexNetwork1/src/result/US_CA.xlsx
+++ b/ComplexNetwork1/src/result/US_CA.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="basic_information" sheetId="2" r:id="rId1"/>
+    <sheet name="connected component" sheetId="3" r:id="rId1"/>
     <sheet name="degree" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>total vertices is: 81</t>
   </si>
   <si>
-    <t>total edges is: 757</t>
-  </si>
-  <si>
     <t>[USCVG]</t>
   </si>
   <si>
@@ -269,6 +266,21 @@
   </si>
   <si>
     <t>[USHNL]</t>
+  </si>
+  <si>
+    <t>Component 1: [USAKV, CAYIK, CAYPX]</t>
+  </si>
+  <si>
+    <t>Component 2: [USDVO, CAZAM]</t>
+  </si>
+  <si>
+    <t>Component 3: [USAMM, CAYUL, USCLT, USDCA, USDFW, USDTW, USJFK, USLAS, USLAX, USLGA, USMCO, USMIA, USORD, USPHL, USATL, USBDL, USBOS, USDEN, USEWR, USFLL, USHOG, USIAD, USIAH, USMSP, USSFO, USALG, CAYYZ, CAYEG, CAYVR, CAYYC, CAYYJ, USSEA, CAYLW, USPDX, USPHX, USSAN, USSLC, USPSP, USHND, USHNL, USSNA, USANU, USBNA, USBWI, USCLE, USCMH, USCVG, USIND, USMCI, USMDT, USMKE, USMSY, USPIT, USRDU, USROC, USRSW, USSTL, USSYR, USTPA, USGEO, USMYR, CAYTZ, USMDW, CAYQR, CAYWG, CAYXE, CAYOW, CAYHZ, CAYQB, CAYQM, CAYYT, CAYMM, CAYKF, CAYXU]</t>
+  </si>
+  <si>
+    <t>Component 4: [USLHW, CAYZY]</t>
+  </si>
+  <si>
+    <t>total edges is: 170</t>
   </si>
 </sst>
 </file>
@@ -585,16 +597,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49BAD7B-D34C-4D24-AC60-5C655CF6B81D}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861E1950-09F6-4D9A-A830-55218BC12E9E}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -604,7 +616,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +649,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1">
         <v>46</v>
@@ -636,7 +668,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -644,7 +676,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -652,7 +684,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -660,7 +692,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -668,7 +700,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -676,7 +708,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -684,7 +716,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -692,7 +724,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -700,7 +732,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -708,7 +740,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -716,7 +748,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -724,7 +756,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -732,7 +764,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -740,7 +772,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -748,7 +780,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -756,7 +788,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -764,7 +796,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -772,7 +804,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -780,7 +812,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -788,7 +820,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -796,7 +828,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -804,7 +836,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -812,7 +844,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -820,7 +852,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -828,7 +860,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -836,7 +868,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -844,7 +876,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -852,7 +884,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -860,7 +892,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -868,7 +900,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -876,7 +908,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -884,7 +916,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -892,7 +924,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -900,7 +932,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -908,7 +940,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -916,7 +948,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -924,7 +956,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -932,7 +964,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -940,7 +972,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -948,7 +980,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -956,7 +988,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -964,7 +996,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -972,7 +1004,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -980,7 +1012,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -988,7 +1020,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -996,7 +1028,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1004,7 +1036,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1012,7 +1044,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1020,7 +1052,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1028,7 +1060,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1036,7 +1068,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1044,7 +1076,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1052,7 +1084,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1060,7 +1092,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1068,7 +1100,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1076,7 +1108,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1084,7 +1116,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1092,7 +1124,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1100,7 +1132,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1108,7 +1140,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1116,7 +1148,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1124,7 +1156,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1132,7 +1164,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1140,7 +1172,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1148,7 +1180,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1156,7 +1188,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1164,7 +1196,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1172,7 +1204,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1180,7 +1212,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1188,7 +1220,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1196,7 +1228,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1204,7 +1236,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1212,7 +1244,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1220,7 +1252,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1228,7 +1260,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1236,7 +1268,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1244,7 +1276,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1252,7 +1284,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1260,7 +1292,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1268,15 +1300,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B83">
-    <sortCondition descending="1" ref="B1"/>
+  <sortState ref="F1:F83">
+    <sortCondition descending="1" ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ComplexNetwork1/src/result/US_CA.xlsx
+++ b/ComplexNetwork1/src/result/US_CA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="3" r:id="rId1"/>
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,8 +322,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -597,44 +625,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861E1950-09F6-4D9A-A830-55218BC12E9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -645,20 +673,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -666,7 +693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -674,7 +701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -682,7 +709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -690,7 +717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -698,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -706,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -714,7 +741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -722,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -730,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -738,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -746,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -754,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -762,7 +789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -770,7 +797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -778,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -786,7 +813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -794,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -802,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -810,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -818,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -826,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -834,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -842,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -850,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -858,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -866,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -874,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -882,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -890,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -898,7 +925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -906,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -914,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -922,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -930,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -938,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -946,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -954,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -962,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -970,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -978,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -986,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -994,7 +1021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1002,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -1010,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -1018,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1026,7 +1053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -1034,7 +1061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1058,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1098,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -1130,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -1146,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -1154,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -1162,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -1170,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -1178,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -1186,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -1194,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -1202,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -1210,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -1218,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -1226,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -1234,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -1242,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -1250,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -1258,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -1266,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -1274,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -1282,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -1290,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1298,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>

--- a/ComplexNetwork1/src/result/US_CA.xlsx
+++ b/ComplexNetwork1/src/result/US_CA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>total vertices is: 81</t>
   </si>
@@ -281,12 +281,15 @@
   </si>
   <si>
     <t>total edges is: 170</t>
+  </si>
+  <si>
+    <t>the average degree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,7 +350,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -625,46 +628,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>4.19753086419753</v>
       </c>
     </row>
   </sheetData>
@@ -673,19 +685,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -693,7 +705,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -701,7 +713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -709,7 +721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -717,7 +729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -725,7 +737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -733,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -741,7 +753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -749,7 +761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -757,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -765,7 +777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -773,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -781,7 +793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -789,7 +801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -797,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -805,7 +817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -813,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -821,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -829,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -837,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -845,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -853,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -861,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -869,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -877,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -885,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -893,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -901,7 +913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -909,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -917,7 +929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -925,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -933,7 +945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -941,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -949,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -957,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -965,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -973,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -981,7 +993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1021,7 +1033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -1045,7 +1057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1109,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -1197,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -1213,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -1229,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -1237,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -1245,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -1261,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -1277,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -1285,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -1317,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1325,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
